--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Bmp6-Acvr2a.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H2">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I2">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J2">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N2">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O2">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P2">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q2">
-        <v>302.1780833502507</v>
+        <v>54.73459723188667</v>
       </c>
       <c r="R2">
-        <v>2719.602750152256</v>
+        <v>492.61137508698</v>
       </c>
       <c r="S2">
-        <v>0.1248559191978515</v>
+        <v>0.08569344222492077</v>
       </c>
       <c r="T2">
-        <v>0.1467920574012921</v>
+        <v>0.09906154908465621</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H3">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I3">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J3">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>88.626007</v>
       </c>
       <c r="O3">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P3">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q3">
-        <v>681.2896223866987</v>
+        <v>174.9601651536482</v>
       </c>
       <c r="R3">
-        <v>6131.606601480289</v>
+        <v>1574.641486382834</v>
       </c>
       <c r="S3">
-        <v>0.2814997073909325</v>
+        <v>0.2739206929894485</v>
       </c>
       <c r="T3">
-        <v>0.3309568458688482</v>
+        <v>0.3166520969324079</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H4">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I4">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J4">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N4">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O4">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P4">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q4">
-        <v>136.4296390291307</v>
+        <v>43.52879298504755</v>
       </c>
       <c r="R4">
-        <v>1227.866751262176</v>
+        <v>391.7591368654279</v>
       </c>
       <c r="S4">
-        <v>0.05637089162111481</v>
+        <v>0.06814943921084798</v>
       </c>
       <c r="T4">
-        <v>0.06627478466196013</v>
+        <v>0.07878069595754827</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H5">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I5">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J5">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N5">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O5">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P5">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q5">
-        <v>187.979823273616</v>
+        <v>71.72346660003565</v>
       </c>
       <c r="R5">
-        <v>1127.878939641696</v>
+        <v>430.3407996002139</v>
       </c>
       <c r="S5">
-        <v>0.07767073430759956</v>
+        <v>0.112291513084901</v>
       </c>
       <c r="T5">
-        <v>0.0608778874195223</v>
+        <v>0.08653926482148247</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>23.061728</v>
+        <v>5.922420666666667</v>
       </c>
       <c r="H6">
-        <v>69.18518400000001</v>
+        <v>17.767262</v>
       </c>
       <c r="I6">
-        <v>0.6130144106248721</v>
+        <v>0.5833698282960434</v>
       </c>
       <c r="J6">
-        <v>0.690276959311791</v>
+        <v>0.6311054116979437</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N6">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O6">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P6">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q6">
-        <v>175.7490857958933</v>
+        <v>27.66623477323356</v>
       </c>
       <c r="R6">
-        <v>1581.74177216304</v>
+        <v>248.996112959102</v>
       </c>
       <c r="S6">
-        <v>0.07261715810737375</v>
+        <v>0.04331474078592509</v>
       </c>
       <c r="T6">
-        <v>0.08537538396016825</v>
+        <v>0.05007180490184873</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I7">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J7">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N7">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O7">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P7">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q7">
-        <v>25.23657453481778</v>
+        <v>17.80008040573334</v>
       </c>
       <c r="R7">
-        <v>227.12917081336</v>
+        <v>160.2007236516</v>
       </c>
       <c r="S7">
-        <v>0.01042741312015523</v>
+        <v>0.02786811704095326</v>
       </c>
       <c r="T7">
-        <v>0.01225942218130057</v>
+        <v>0.03221552049342814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I8">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J8">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>88.626007</v>
       </c>
       <c r="O8">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P8">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q8">
         <v>56.89829038736445</v>
@@ -948,10 +948,10 @@
         <v>512.0846134862801</v>
       </c>
       <c r="S8">
-        <v>0.02350960820300924</v>
+        <v>0.08908095805199211</v>
       </c>
       <c r="T8">
-        <v>0.02764004925829264</v>
+        <v>0.1029775146085722</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I9">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J9">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N9">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O9">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P9">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q9">
-        <v>11.39399891595111</v>
+        <v>14.15587314575111</v>
       </c>
       <c r="R9">
-        <v>102.54599024356</v>
+        <v>127.40285831176</v>
       </c>
       <c r="S9">
-        <v>0.0047078470821508</v>
+        <v>0.02216268245145752</v>
       </c>
       <c r="T9">
-        <v>0.005534976343608368</v>
+        <v>0.02562004277702172</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I10">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J10">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N10">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O10">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P10">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q10">
-        <v>15.69924187912667</v>
+        <v>23.32498158431333</v>
       </c>
       <c r="R10">
-        <v>94.19545127476002</v>
+        <v>139.94988950588</v>
       </c>
       <c r="S10">
-        <v>0.006486715561220198</v>
+        <v>0.03651799890523828</v>
       </c>
       <c r="T10">
-        <v>0.00508425140020581</v>
+        <v>0.02814318456659888</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.778040000000001</v>
       </c>
       <c r="I11">
-        <v>0.05119624723650278</v>
+        <v>0.1897160182974547</v>
       </c>
       <c r="J11">
-        <v>0.05764887294340217</v>
+        <v>0.2052399696141807</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N11">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O11">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P11">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q11">
-        <v>14.67778488082222</v>
+        <v>8.997256367871113</v>
       </c>
       <c r="R11">
-        <v>132.1000639274</v>
+        <v>80.97530731084001</v>
       </c>
       <c r="S11">
-        <v>0.006064663269967309</v>
+        <v>0.0140862618478135</v>
       </c>
       <c r="T11">
-        <v>0.007130173759994778</v>
+        <v>0.01628370716855969</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H12">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I12">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J12">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>13.10301133333333</v>
+        <v>9.24193</v>
       </c>
       <c r="N12">
-        <v>39.309034</v>
+        <v>27.72579</v>
       </c>
       <c r="O12">
-        <v>0.2036753411238415</v>
+        <v>0.1468938537243544</v>
       </c>
       <c r="P12">
-        <v>0.2126567538160977</v>
+        <v>0.1569651396557324</v>
       </c>
       <c r="Q12">
-        <v>165.5233189599253</v>
+        <v>21.29019052836</v>
       </c>
       <c r="R12">
-        <v>993.1399137595519</v>
+        <v>127.74114317016</v>
       </c>
       <c r="S12">
-        <v>0.06839200880583481</v>
+        <v>0.0333322944584804</v>
       </c>
       <c r="T12">
-        <v>0.05360527423350512</v>
+        <v>0.02568807007764803</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H13">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I13">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J13">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>88.626007</v>
       </c>
       <c r="O13">
-        <v>0.4592056932299319</v>
+        <v>0.469548954544906</v>
       </c>
       <c r="P13">
-        <v>0.479455154057023</v>
+        <v>0.5017420086455576</v>
       </c>
       <c r="Q13">
-        <v>373.1882809637493</v>
+        <v>68.05449275918798</v>
       </c>
       <c r="R13">
-        <v>2239.129685782496</v>
+        <v>408.3269565551279</v>
       </c>
       <c r="S13">
-        <v>0.1541963776359902</v>
+        <v>0.1065473035034653</v>
       </c>
       <c r="T13">
-        <v>0.1208582589298822</v>
+        <v>0.08211239710457753</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H14">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I14">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J14">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>5.915846333333334</v>
+        <v>7.349831333333333</v>
       </c>
       <c r="N14">
-        <v>17.747539</v>
+        <v>22.049494</v>
       </c>
       <c r="O14">
-        <v>0.09195687840951981</v>
+        <v>0.1168203014713749</v>
       </c>
       <c r="P14">
-        <v>0.09601187431786275</v>
+        <v>0.1248296948454213</v>
       </c>
       <c r="Q14">
-        <v>74.73171583536534</v>
+        <v>16.931453650696</v>
       </c>
       <c r="R14">
-        <v>448.3902950121919</v>
+        <v>101.588721904176</v>
       </c>
       <c r="S14">
-        <v>0.03087813970625421</v>
+        <v>0.02650817980906934</v>
       </c>
       <c r="T14">
-        <v>0.02420211331229425</v>
+        <v>0.0204289561108513</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H15">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I15">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J15">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>8.1511595</v>
+        <v>12.1104985</v>
       </c>
       <c r="N15">
-        <v>16.302319</v>
+        <v>24.220997</v>
       </c>
       <c r="O15">
-        <v>0.1267029501450487</v>
+        <v>0.1924876941491673</v>
       </c>
       <c r="P15">
-        <v>0.08819342236226138</v>
+        <v>0.1371233128688515</v>
       </c>
       <c r="Q15">
-        <v>102.969228942008</v>
+        <v>27.89837409052199</v>
       </c>
       <c r="R15">
-        <v>411.876915768032</v>
+        <v>111.593496362088</v>
       </c>
       <c r="S15">
-        <v>0.04254550027622892</v>
+        <v>0.04367818215902795</v>
       </c>
       <c r="T15">
-        <v>0.02223128354253327</v>
+        <v>0.02244086348077016</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>12.632464</v>
+        <v>2.303652</v>
       </c>
       <c r="H16">
-        <v>25.264928</v>
+        <v>4.607303999999999</v>
       </c>
       <c r="I16">
-        <v>0.3357893421386252</v>
+        <v>0.2269141534065018</v>
       </c>
       <c r="J16">
-        <v>0.2520741677448068</v>
+        <v>0.1636546186878756</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>7.620811666666666</v>
+        <v>4.671440333333334</v>
       </c>
       <c r="N16">
-        <v>22.862435</v>
+        <v>14.014321</v>
       </c>
       <c r="O16">
-        <v>0.1184591370916582</v>
+        <v>0.07424919611019735</v>
       </c>
       <c r="P16">
-        <v>0.123682795446755</v>
+        <v>0.079339843984437</v>
       </c>
       <c r="Q16">
-        <v>96.26962902994664</v>
+        <v>10.761372866764</v>
       </c>
       <c r="R16">
-        <v>577.6177741796799</v>
+        <v>64.56823720058399</v>
       </c>
       <c r="S16">
-        <v>0.03977731571431711</v>
+        <v>0.01684819347645876</v>
       </c>
       <c r="T16">
-        <v>0.03117723772659195</v>
+        <v>0.01298433191402858</v>
       </c>
     </row>
   </sheetData>
